--- a/CashFlow/SYK_cashflow.xlsx
+++ b/CashFlow/SYK_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3622000000.0</v>
+        <v>10322000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>27000000.0</v>
+        <v>13754000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-140000000.0</v>
+        <v>10274000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-296000000.0</v>
+        <v>6686000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-383000000.0</v>
+        <v>3098000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-400000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0</v>
+        <v>2859000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>100000000.0</v>
+        <v>2828000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>23000000.0</v>
+        <v>2067000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>155000000.0</v>
+        <v>1560000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>342000000.0</v>
+        <v>1015000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>113000000.0</v>
